--- a/data/trans_orig/P16B97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B97-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{226ACCFB-8857-4A92-B35E-54F731901832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56AF3F0-9C86-4918-A1DF-92B01F10AB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55F18E93-28BD-4D6B-BB60-DC10C90FF0B2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F588F43B-2C0E-4C2C-BC84-B54AAB9D04B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -136,13 +136,13 @@
     <t>95,07%</t>
   </si>
   <si>
-    <t>72,61%</t>
+    <t>74,65%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>83,86%</t>
+    <t>85,69%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -151,13 +151,13 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>27,39%</t>
+    <t>25,35%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>16,14%</t>
+    <t>14,31%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -169,13 +169,13 @@
     <t>95,47%</t>
   </si>
   <si>
-    <t>79,98%</t>
+    <t>77,86%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>81,77%</t>
+    <t>81,73%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -184,13 +184,13 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>20,02%</t>
+    <t>22,14%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>18,23%</t>
+    <t>18,27%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,13 +259,13 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -274,13 +274,13 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -331,25 +331,25 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>92,42%</t>
+    <t>90,9%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>94,88%</t>
+    <t>94,75%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>7,58%</t>
+    <t>9,1%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>5,12%</t>
+    <t>5,25%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -379,109 +379,115 @@
     <t>97,53%</t>
   </si>
   <si>
-    <t>91,4%</t>
+    <t>90,92%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>93,98%</t>
+    <t>92,76%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 8,43%)</t>
@@ -502,7 +508,7 @@
     <t>96,42%</t>
   </si>
   <si>
-    <t>81,49%</t>
+    <t>75,87%</t>
   </si>
   <si>
     <t>94,7%</t>
@@ -511,13 +517,13 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>90,75%</t>
+    <t>92,09%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>18,51%</t>
+    <t>24,13%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -526,7 +532,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -553,106 +559,100 @@
     <t>95,95%</t>
   </si>
   <si>
-    <t>87,41%</t>
+    <t>86,38%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
     <t>4,78%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>12,59%</t>
+    <t>13,62%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>73,8%</t>
+    <t>75,91%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>78,41%</t>
+    <t>77,02%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>26,2%</t>
+    <t>24,09%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>21,59%</t>
+    <t>22,98%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>81,33%</t>
+    <t>82,78%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>93,28%</t>
+    <t>91,76%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>18,67%</t>
+    <t>17,22%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>8,24%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>84,71%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>88,77%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>15,29%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>11,23%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -670,49 +670,49 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>96,8%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64DA339-F0CF-4E82-A5A4-63BADCA0D920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10826BB-A00E-4915-85DD-E34006E5CBB5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2655,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE1B3D5-1E19-409B-8BB3-FC8FA07B12B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04043DD-1A85-44F5-A414-4B1A6B3493AD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4022,7 +4022,7 @@
         <v>137</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>832</v>
@@ -4031,13 +4031,13 @@
         <v>901239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4052,13 @@
         <v>1783</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -4067,13 +4067,13 @@
         <v>7027</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -4082,13 +4082,13 @@
         <v>8810</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,7 +4168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BDF453-0004-4448-B504-03DE4C0B3963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B0E9C-C5E4-4944-A488-AE7562030CDC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4185,7 +4185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4295,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4325,7 +4325,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4349,7 +4349,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,10 +4447,10 @@
         <v>29719</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -4465,7 +4465,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4477,10 +4477,10 @@
         <v>69055</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -4498,13 +4498,13 @@
         <v>1102</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4528,13 +4528,13 @@
         <v>1102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4605,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4620,7 +4620,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4635,7 +4635,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4659,7 +4659,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,7 +4760,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4772,10 +4772,10 @@
         <v>63732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -4787,10 +4787,10 @@
         <v>101211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4814,7 +4814,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -4823,13 +4823,13 @@
         <v>2690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4838,13 +4838,13 @@
         <v>2690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,7 +5243,7 @@
         <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -5252,13 +5252,13 @@
         <v>84642</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,10 +5291,10 @@
         <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -5303,10 +5303,10 @@
         <v>3667</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>204</v>
@@ -5410,7 +5410,7 @@
         <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5464,7 +5464,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B97-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56AF3F0-9C86-4918-A1DF-92B01F10AB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF2D7763-2A5D-4F4C-A569-502B28C76042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F588F43B-2C0E-4C2C-BC84-B54AAB9D04B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C04996A-8AF7-4336-BF1E-E7D89B19EC83}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,13 +136,13 @@
     <t>95,07%</t>
   </si>
   <si>
-    <t>74,65%</t>
+    <t>75,08%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>85,69%</t>
+    <t>83,03%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -151,13 +151,13 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>25,35%</t>
+    <t>24,92%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>14,31%</t>
+    <t>16,97%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -169,13 +169,13 @@
     <t>95,47%</t>
   </si>
   <si>
-    <t>77,86%</t>
+    <t>77,03%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>81,73%</t>
+    <t>83,79%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -184,13 +184,13 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>22,14%</t>
+    <t>22,97%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>18,27%</t>
+    <t>16,21%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,7 +259,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>94,73%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -274,7 +274,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>5,27%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -331,25 +331,25 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>90,9%</t>
+    <t>92,77%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>94,75%</t>
+    <t>95,44%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>9,1%</t>
+    <t>7,23%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>5,25%</t>
+    <t>4,56%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -379,118 +379,118 @@
     <t>97,53%</t>
   </si>
   <si>
-    <t>90,92%</t>
+    <t>92,13%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>92,76%</t>
+    <t>91,87%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>9,08%</t>
+    <t>7,87%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>8,13%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>91,98%</t>
+    <t>91,68%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>95,15%</t>
+    <t>95,22%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>8,02%</t>
+    <t>8,32%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,32%</t>
+    <t>98,36%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,64%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 8,43%)</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Población según si dicho medicamento fue recetado por el médico en 2016 (Tasa respuesta: 8,43%)</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -508,7 +508,7 @@
     <t>96,42%</t>
   </si>
   <si>
-    <t>75,87%</t>
+    <t>81,77%</t>
   </si>
   <si>
     <t>94,7%</t>
@@ -517,13 +517,13 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>92,09%</t>
+    <t>91,94%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>24,13%</t>
+    <t>18,23%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -532,7 +532,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,91%</t>
+    <t>8,06%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -553,106 +553,112 @@
     <t>3,61%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>86,38%</t>
+    <t>87,01%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>90,37%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>13,62%</t>
+    <t>12,99%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
+    <t>9,63%</t>
+  </si>
+  <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>75,91%</t>
+    <t>73,79%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>77,02%</t>
+    <t>77,96%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>24,09%</t>
+    <t>26,21%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>22,98%</t>
+    <t>22,04%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>82,78%</t>
+    <t>82,32%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>91,76%</t>
+    <t>92,04%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>17,22%</t>
+    <t>17,68%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>8,24%</t>
+    <t>7,96%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>84,71%</t>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>15,29%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -670,49 +676,43 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>96,74%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>97,03%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>2,97%</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10826BB-A00E-4915-85DD-E34006E5CBB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F8BB49-800E-47C7-8FE7-02C13A5C9960}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2655,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04043DD-1A85-44F5-A414-4B1A6B3493AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649B5A2A-6832-431F-8E5D-A399DB49AFA7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4168,7 +4168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B0E9C-C5E4-4944-A488-AE7562030CDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529C42F9-9E83-4C81-BA8F-D782A1B82472}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4760,7 +4760,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4772,10 +4772,10 @@
         <v>63732</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -4787,10 +4787,10 @@
         <v>101211</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4814,7 +4814,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -4823,13 +4823,13 @@
         <v>2690</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4838,13 +4838,13 @@
         <v>2690</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,7 +5243,7 @@
         <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -5252,13 +5252,13 @@
         <v>84642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5288,13 @@
         <v>3667</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -5303,13 +5303,13 @@
         <v>3667</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,7 +5380,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5395,7 +5395,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5434,7 +5434,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5532,10 +5532,10 @@
         <v>229185</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -5547,13 +5547,13 @@
         <v>359399</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
         <v>546</v>
@@ -5562,13 +5562,13 @@
         <v>588583</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5583,13 @@
         <v>2109</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -5598,13 +5598,13 @@
         <v>7487</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5613,10 +5613,10 @@
         <v>9597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>224</v>
